--- a/ML4RM_Class00.xlsx
+++ b/ML4RM_Class00.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/ML4RM/Classes/Dev/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidromoff/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{832D446E-40D0-5448-AAEC-D6FC4DD10AD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DB42FAE-1BF6-5944-A13C-DCF4492F498F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18540" windowHeight="16740" activeTab="3" xr2:uid="{DDE800B3-39F1-2E49-A58F-AA553F4E7E93}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18540" windowHeight="16380" xr2:uid="{DDE800B3-39F1-2E49-A58F-AA553F4E7E93}"/>
   </bookViews>
   <sheets>
     <sheet name="Class0" sheetId="6" r:id="rId1"/>
@@ -23,7 +23,6 @@
     <sheet name="Software" sheetId="14" r:id="rId8"/>
     <sheet name="ML_Overview1" sheetId="3" r:id="rId9"/>
     <sheet name="ML_Overview2" sheetId="2" r:id="rId10"/>
-    <sheet name="Grading" sheetId="15" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029" calcMode="autoNoTable"/>
   <extLst>
@@ -44,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="95">
   <si>
     <t>Cluster Analysis</t>
   </si>
@@ -251,36 +250,6 @@
   </si>
   <si>
     <t>Grading</t>
-  </si>
-  <si>
-    <t>Final</t>
-  </si>
-  <si>
-    <t>Participation</t>
-  </si>
-  <si>
-    <t>Weight</t>
-  </si>
-  <si>
-    <t>Projects (6 * 5%)</t>
-  </si>
-  <si>
-    <t>Individual</t>
-  </si>
-  <si>
-    <t>Prework (10 * 2%)</t>
-  </si>
-  <si>
-    <t>Midterm</t>
-  </si>
-  <si>
-    <t>Team</t>
-  </si>
-  <si>
-    <t>Assignment</t>
-  </si>
-  <si>
-    <t>Grouping</t>
   </si>
   <si>
     <t>Get the low hanging fruit</t>
@@ -365,7 +334,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -398,13 +367,6 @@
       <u/>
       <sz val="20"/>
       <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -453,12 +415,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
@@ -466,18 +427,11 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -791,7 +745,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36BDC5B1-4498-A242-8FD7-99000189F065}">
   <dimension ref="B2:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
   <cols>
@@ -807,12 +761,12 @@
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.3">
@@ -827,12 +781,12 @@
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.3">
@@ -937,7 +891,7 @@
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.3">
@@ -984,90 +938,6 @@
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1833D2DF-ADD2-734C-AC50-BA9B27058D29}">
-  <dimension ref="B2:D7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="10.83203125" style="1"/>
-    <col min="2" max="4" width="27.83203125" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B2" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B3" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C3" s="9">
-        <v>0.3</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B4" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C4" s="9">
-        <v>0.2</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B5" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C5" s="9">
-        <v>0.15</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B6" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C6" s="9">
-        <v>0.3</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B7" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C7" s="9">
-        <v>0.05</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>73</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1092,27 +962,27 @@
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C4" s="1" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C5" s="1" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C6" s="1" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1133,42 +1003,42 @@
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C3" s="1" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C4" s="1" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C5" s="1" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.3">
@@ -1223,17 +1093,17 @@
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C23" s="1" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C24" s="1" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C25" s="1" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1245,7 +1115,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2089B023-B0E7-0945-8E8B-2681F4FF99C6}">
   <dimension ref="B2:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1259,22 +1129,22 @@
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.3">
@@ -1315,7 +1185,7 @@
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.3">
@@ -1330,7 +1200,7 @@
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.3">
@@ -1515,7 +1385,7 @@
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B10" s="6" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
